--- a/data/pca/factorExposure/factorExposure_2018-03-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.008263338491917007</v>
+        <v>0.01347718095096728</v>
       </c>
       <c r="C2">
-        <v>0.02206174239217167</v>
+        <v>-0.02648350269169015</v>
       </c>
       <c r="D2">
-        <v>-0.02130153654888073</v>
+        <v>0.02389734896921925</v>
       </c>
       <c r="E2">
-        <v>0.005185215862372743</v>
+        <v>0.02376171852273319</v>
       </c>
       <c r="F2">
-        <v>-0.07799181306216985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.000121274824565288</v>
+      </c>
+      <c r="G2">
+        <v>0.01376988629341345</v>
+      </c>
+      <c r="H2">
+        <v>-0.04388767962733169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09235317894760806</v>
+        <v>0.05657645787857448</v>
       </c>
       <c r="C3">
-        <v>0.03540889089694905</v>
+        <v>-0.07495393938517196</v>
       </c>
       <c r="D3">
-        <v>-0.006018738984881393</v>
+        <v>0.005409686600108061</v>
       </c>
       <c r="E3">
-        <v>0.03487810592524273</v>
+        <v>0.03593252694523521</v>
       </c>
       <c r="F3">
-        <v>-0.3123886651560909</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.07536832411372217</v>
+      </c>
+      <c r="G3">
+        <v>0.05487956373068156</v>
+      </c>
+      <c r="H3">
+        <v>-0.1335911526432715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04361789189322302</v>
+        <v>0.03455377376266434</v>
       </c>
       <c r="C4">
-        <v>0.00329820919033511</v>
+        <v>-0.06104550416816053</v>
       </c>
       <c r="D4">
-        <v>-0.033938163002104</v>
+        <v>0.01740392672968857</v>
       </c>
       <c r="E4">
-        <v>-0.03912424703910736</v>
+        <v>-0.02528813999269939</v>
       </c>
       <c r="F4">
-        <v>-0.05942494082937255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.001630840023531249</v>
+      </c>
+      <c r="G4">
+        <v>0.04418398215293174</v>
+      </c>
+      <c r="H4">
+        <v>-0.05696371574530085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0360134866856186</v>
+        <v>0.01859694115305906</v>
       </c>
       <c r="C6">
-        <v>0.01057935293451317</v>
+        <v>-0.06394856052567348</v>
       </c>
       <c r="D6">
-        <v>-0.04020523061975904</v>
+        <v>0.01254101920230704</v>
       </c>
       <c r="E6">
-        <v>-0.03078458227045758</v>
+        <v>-0.01213673561957777</v>
       </c>
       <c r="F6">
-        <v>-0.02115553602134441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01455584632966656</v>
+      </c>
+      <c r="G6">
+        <v>0.02685896355531334</v>
+      </c>
+      <c r="H6">
+        <v>-0.05205320496505854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03672858536549206</v>
+        <v>0.006481626325423946</v>
       </c>
       <c r="C7">
-        <v>-0.03705264256484517</v>
+        <v>-0.03441206070785326</v>
       </c>
       <c r="D7">
-        <v>-0.01943477385098535</v>
+        <v>0.01068391590990805</v>
       </c>
       <c r="E7">
-        <v>-0.01085232858195607</v>
+        <v>-0.03804430833831485</v>
       </c>
       <c r="F7">
-        <v>-0.02774610364900471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02982105729184107</v>
+      </c>
+      <c r="G7">
+        <v>0.00485718751243191</v>
+      </c>
+      <c r="H7">
+        <v>-0.03109009718729395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01223419811231389</v>
+        <v>-0.003301117577430243</v>
       </c>
       <c r="C8">
-        <v>-0.006707200969287711</v>
+        <v>-0.009237575400638489</v>
       </c>
       <c r="D8">
-        <v>-0.03469867452042688</v>
+        <v>0.001611778033499946</v>
       </c>
       <c r="E8">
-        <v>-0.0299602186710343</v>
+        <v>-0.005497974453512602</v>
       </c>
       <c r="F8">
-        <v>-0.05255284010331734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02025177730150725</v>
+      </c>
+      <c r="G8">
+        <v>0.02620319027381109</v>
+      </c>
+      <c r="H8">
+        <v>-0.02701836122594681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03318762260675844</v>
+        <v>0.01996538095245573</v>
       </c>
       <c r="C9">
-        <v>0.0007951700394970854</v>
+        <v>-0.04811207680632222</v>
       </c>
       <c r="D9">
-        <v>-0.02907976129103445</v>
+        <v>0.01187590638630589</v>
       </c>
       <c r="E9">
-        <v>-0.01496791710484554</v>
+        <v>-0.005118456349115714</v>
       </c>
       <c r="F9">
-        <v>-0.07475579450784772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01526326208779302</v>
+      </c>
+      <c r="G9">
+        <v>0.02762156874140728</v>
+      </c>
+      <c r="H9">
+        <v>-0.05316780320477577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04774100865706545</v>
+        <v>0.1377992950053685</v>
       </c>
       <c r="C10">
-        <v>0.009571692752500785</v>
+        <v>0.1390289535628147</v>
       </c>
       <c r="D10">
-        <v>0.1397459017567715</v>
+        <v>-0.02465129843815374</v>
       </c>
       <c r="E10">
-        <v>0.06186641467794324</v>
+        <v>0.02217127263387083</v>
       </c>
       <c r="F10">
-        <v>-0.05326341580363636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04898175778660668</v>
+      </c>
+      <c r="G10">
+        <v>-0.006107883090218535</v>
+      </c>
+      <c r="H10">
+        <v>0.007748648900496597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02858264235634612</v>
+        <v>0.01356878414723945</v>
       </c>
       <c r="C11">
-        <v>0.0159844680420632</v>
+        <v>-0.05020444558690698</v>
       </c>
       <c r="D11">
-        <v>-0.03831070862204391</v>
+        <v>-0.0009745225184668112</v>
       </c>
       <c r="E11">
-        <v>-0.02526366634158718</v>
+        <v>-0.001595827902021537</v>
       </c>
       <c r="F11">
-        <v>-0.02133471213540785</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.005500269422504103</v>
+      </c>
+      <c r="G11">
+        <v>0.01419435461162429</v>
+      </c>
+      <c r="H11">
+        <v>-0.04770272162325438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04039226423748182</v>
+        <v>0.01883100789948715</v>
       </c>
       <c r="C12">
-        <v>0.01440968046285993</v>
+        <v>-0.04780087573040967</v>
       </c>
       <c r="D12">
-        <v>-0.03399019500035549</v>
+        <v>0.002596514265491497</v>
       </c>
       <c r="E12">
-        <v>-0.03237971741397303</v>
+        <v>-0.01545779207909578</v>
       </c>
       <c r="F12">
-        <v>0.006001008593454545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.005419880979879507</v>
+      </c>
+      <c r="G12">
+        <v>0.008168692501382961</v>
+      </c>
+      <c r="H12">
+        <v>-0.019462960499303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008493414540646208</v>
+        <v>0.01406208155595611</v>
       </c>
       <c r="C13">
-        <v>0.01794178267276726</v>
+        <v>-0.02543052117716029</v>
       </c>
       <c r="D13">
-        <v>-0.00864581462916229</v>
+        <v>0.02041810379115233</v>
       </c>
       <c r="E13">
-        <v>-0.01059187630855933</v>
+        <v>0.01960589581759643</v>
       </c>
       <c r="F13">
-        <v>-0.06729049075663811</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.008560952558174057</v>
+      </c>
+      <c r="G13">
+        <v>0.03978338312389262</v>
+      </c>
+      <c r="H13">
+        <v>-0.06585835456169013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02530932146969033</v>
+        <v>0.00747764024371734</v>
       </c>
       <c r="C14">
-        <v>-0.006489920070688762</v>
+        <v>-0.02188834149417409</v>
       </c>
       <c r="D14">
-        <v>-0.01187393699037665</v>
+        <v>0.00596797769617501</v>
       </c>
       <c r="E14">
-        <v>-0.01735330154675878</v>
+        <v>-0.01109725177111373</v>
       </c>
       <c r="F14">
-        <v>-0.04199067061679907</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02013981274752729</v>
+      </c>
+      <c r="G14">
+        <v>0.02184253562865958</v>
+      </c>
+      <c r="H14">
+        <v>-0.01662442632189581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02934635863386257</v>
+        <v>0.01567311521216872</v>
       </c>
       <c r="C16">
-        <v>0.01433868863376274</v>
+        <v>-0.04397465106777463</v>
       </c>
       <c r="D16">
-        <v>-0.04300700606123379</v>
+        <v>-0.001525820019468497</v>
       </c>
       <c r="E16">
-        <v>-0.02588147851926294</v>
+        <v>-0.005155758568520798</v>
       </c>
       <c r="F16">
-        <v>-0.02651254855647613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.002039416031072108</v>
+      </c>
+      <c r="G16">
+        <v>0.01611065855617432</v>
+      </c>
+      <c r="H16">
+        <v>-0.03658188870946806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03535206035323892</v>
+        <v>0.01571945752937519</v>
       </c>
       <c r="C19">
-        <v>0.009203764431195933</v>
+        <v>-0.04234674023657186</v>
       </c>
       <c r="D19">
-        <v>-0.03387473355324874</v>
+        <v>0.01055602251582957</v>
       </c>
       <c r="E19">
-        <v>-0.04191884687533357</v>
+        <v>-0.00704723857261235</v>
       </c>
       <c r="F19">
-        <v>-0.06999986320703511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01884629114135372</v>
+      </c>
+      <c r="G19">
+        <v>0.0409237940239502</v>
+      </c>
+      <c r="H19">
+        <v>-0.05802498492133801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002843476564663381</v>
+        <v>0.002962146798216328</v>
       </c>
       <c r="C20">
-        <v>-0.009304302373159561</v>
+        <v>-0.02184638790360097</v>
       </c>
       <c r="D20">
-        <v>-1.36221279427415e-05</v>
+        <v>0.01009054068774138</v>
       </c>
       <c r="E20">
-        <v>-0.0141560945400671</v>
+        <v>0.004239926233599431</v>
       </c>
       <c r="F20">
-        <v>-0.0462610591192744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02329596250669379</v>
+      </c>
+      <c r="G20">
+        <v>0.03275362737937795</v>
+      </c>
+      <c r="H20">
+        <v>-0.02978624314100755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02439269046481754</v>
+        <v>0.007040249710287359</v>
       </c>
       <c r="C21">
-        <v>-0.01043971196066769</v>
+        <v>-0.02241019818772873</v>
       </c>
       <c r="D21">
-        <v>-0.02408538818630028</v>
+        <v>0.01255929393375024</v>
       </c>
       <c r="E21">
-        <v>-0.01443692083743992</v>
+        <v>-0.007546266956579458</v>
       </c>
       <c r="F21">
-        <v>-0.02654715995725536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02515879986470708</v>
+      </c>
+      <c r="G21">
+        <v>0.01775844762086218</v>
+      </c>
+      <c r="H21">
+        <v>-0.03769011139037012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02630227538644108</v>
+        <v>0.009178649615542897</v>
       </c>
       <c r="C24">
-        <v>0.01398576215963237</v>
+        <v>-0.04222338544435648</v>
       </c>
       <c r="D24">
-        <v>-0.02265474203619217</v>
+        <v>0.004064805423512254</v>
       </c>
       <c r="E24">
-        <v>-0.02175477913902582</v>
+        <v>-0.005864015020606036</v>
       </c>
       <c r="F24">
-        <v>-0.02568099670709904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.007683818000871703</v>
+      </c>
+      <c r="G24">
+        <v>0.008293318520585732</v>
+      </c>
+      <c r="H24">
+        <v>-0.0409709984223072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03042771922666133</v>
+        <v>0.02354480615749396</v>
       </c>
       <c r="C25">
-        <v>0.01195901823659436</v>
+        <v>-0.04967091564708911</v>
       </c>
       <c r="D25">
-        <v>-0.03327918340574841</v>
+        <v>0.006954880523398549</v>
       </c>
       <c r="E25">
-        <v>-0.01985359797150011</v>
+        <v>-0.0124326186211324</v>
       </c>
       <c r="F25">
-        <v>-0.02891060736019591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.007173476795083321</v>
+      </c>
+      <c r="G25">
+        <v>0.01730538522181662</v>
+      </c>
+      <c r="H25">
+        <v>-0.03926242249696664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01410364641192759</v>
+        <v>0.006341215340327749</v>
       </c>
       <c r="C26">
-        <v>0.002125093086380074</v>
+        <v>-0.006595364525766439</v>
       </c>
       <c r="D26">
-        <v>-0.01595972440384203</v>
+        <v>0.02223793785141804</v>
       </c>
       <c r="E26">
-        <v>0.008690771235511633</v>
+        <v>-0.001015060179635082</v>
       </c>
       <c r="F26">
-        <v>-0.0515043852212559</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01349293684439739</v>
+      </c>
+      <c r="G26">
+        <v>0.00793305463511661</v>
+      </c>
+      <c r="H26">
+        <v>-0.01803165302775119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02815589107957008</v>
+        <v>0.008374933373908015</v>
       </c>
       <c r="C27">
-        <v>0.003451842331172153</v>
+        <v>-0.008595802779447338</v>
       </c>
       <c r="D27">
-        <v>0.0007541677548814123</v>
+        <v>-0.001530135878708852</v>
       </c>
       <c r="E27">
-        <v>-0.02503137955588226</v>
+        <v>-0.007021222143903857</v>
       </c>
       <c r="F27">
-        <v>-0.004742522600795468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.009034557392432641</v>
+      </c>
+      <c r="G27">
+        <v>0.006065072602727188</v>
+      </c>
+      <c r="H27">
+        <v>0.009174418752423688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.09125454537355475</v>
+        <v>0.1911910033090648</v>
       </c>
       <c r="C28">
-        <v>0.01696902041925095</v>
+        <v>0.1786370564389674</v>
       </c>
       <c r="D28">
-        <v>0.2066000027980233</v>
+        <v>-0.01991370635688581</v>
       </c>
       <c r="E28">
-        <v>0.1007580095676067</v>
+        <v>0.005287626191353222</v>
       </c>
       <c r="F28">
-        <v>-0.05013971696622862</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04974679982107288</v>
+      </c>
+      <c r="G28">
+        <v>-0.01438422010756793</v>
+      </c>
+      <c r="H28">
+        <v>0.009325792194454563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02746108864731565</v>
+        <v>0.01217309239745712</v>
       </c>
       <c r="C29">
-        <v>-0.002286937288334607</v>
+        <v>-0.01948322161637261</v>
       </c>
       <c r="D29">
-        <v>-0.01114649628619871</v>
+        <v>0.004872393492703082</v>
       </c>
       <c r="E29">
-        <v>-0.01984764589413214</v>
+        <v>-0.008011082540846653</v>
       </c>
       <c r="F29">
-        <v>-0.04074213404863111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02139744065210742</v>
+      </c>
+      <c r="G29">
+        <v>0.02178351772987323</v>
+      </c>
+      <c r="H29">
+        <v>-0.008759608499569473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0360848768896696</v>
+        <v>0.02192182105051749</v>
       </c>
       <c r="C30">
-        <v>0.05811212277024246</v>
+        <v>-0.08682821110011758</v>
       </c>
       <c r="D30">
-        <v>-0.05830086715491369</v>
+        <v>0.02252074914327917</v>
       </c>
       <c r="E30">
-        <v>-0.02802049263654754</v>
+        <v>0.02664518321250872</v>
       </c>
       <c r="F30">
-        <v>-0.07394664899858563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.01523514371485361</v>
+      </c>
+      <c r="G30">
+        <v>0.04666781507464755</v>
+      </c>
+      <c r="H30">
+        <v>-0.07603325793985991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05057947414147664</v>
+        <v>0.03568901387349859</v>
       </c>
       <c r="C31">
-        <v>0.01893792588718009</v>
+        <v>-0.03333891280286331</v>
       </c>
       <c r="D31">
-        <v>-0.01993440682500833</v>
+        <v>-0.0004110378225610591</v>
       </c>
       <c r="E31">
-        <v>-0.02518504658752859</v>
+        <v>-0.00455514070529932</v>
       </c>
       <c r="F31">
-        <v>-0.03370025568923953</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01406164777795895</v>
+      </c>
+      <c r="G31">
+        <v>0.007823515580526694</v>
+      </c>
+      <c r="H31">
+        <v>-0.00136606220126657</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02081072942752548</v>
+        <v>-0.001648116547560402</v>
       </c>
       <c r="C32">
-        <v>-0.02170259238877783</v>
+        <v>-0.01279070807115931</v>
       </c>
       <c r="D32">
-        <v>-0.04709281532547958</v>
+        <v>-0.007826957434409957</v>
       </c>
       <c r="E32">
-        <v>-0.04232141443883</v>
+        <v>-0.02716509513210731</v>
       </c>
       <c r="F32">
-        <v>-0.03717374127648783</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.02308494580774053</v>
+      </c>
+      <c r="G32">
+        <v>0.04706566812991996</v>
+      </c>
+      <c r="H32">
+        <v>-0.04349016884463112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03237042330506076</v>
+        <v>0.0171433017162804</v>
       </c>
       <c r="C33">
-        <v>0.03363021899207887</v>
+        <v>-0.04849006723420941</v>
       </c>
       <c r="D33">
-        <v>-0.04794161961166898</v>
+        <v>0.01048975483378937</v>
       </c>
       <c r="E33">
-        <v>-0.01158039406954895</v>
+        <v>0.02474988198662749</v>
       </c>
       <c r="F33">
-        <v>-0.05286581074830626</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01477001541010945</v>
+      </c>
+      <c r="G33">
+        <v>0.01310153062816723</v>
+      </c>
+      <c r="H33">
+        <v>-0.04980134504893809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03273548736555863</v>
+        <v>0.02451109722427286</v>
       </c>
       <c r="C34">
-        <v>0.006583026541440053</v>
+        <v>-0.05064782283993961</v>
       </c>
       <c r="D34">
-        <v>-0.03905295904640402</v>
+        <v>-0.009515166194642599</v>
       </c>
       <c r="E34">
-        <v>-0.03223126213130331</v>
+        <v>-0.02075682424022961</v>
       </c>
       <c r="F34">
-        <v>-0.02055827665411517</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.008043047100351359</v>
+      </c>
+      <c r="G34">
+        <v>0.01187200299803966</v>
+      </c>
+      <c r="H34">
+        <v>-0.03655668930536792</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01996950860968058</v>
+        <v>0.01290495520224282</v>
       </c>
       <c r="C36">
-        <v>-0.003622419873677367</v>
+        <v>-0.00716853410070166</v>
       </c>
       <c r="D36">
-        <v>-0.003407405823510011</v>
+        <v>0.008961576039010984</v>
       </c>
       <c r="E36">
-        <v>-0.01323721576279959</v>
+        <v>-0.004455293118901913</v>
       </c>
       <c r="F36">
-        <v>-0.02984432984931075</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01507842631546317</v>
+      </c>
+      <c r="G36">
+        <v>0.008861701808210559</v>
+      </c>
+      <c r="H36">
+        <v>-0.0116508856749229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01227651670527207</v>
+        <v>0.02660344874080427</v>
       </c>
       <c r="C38">
-        <v>0.006998025240627509</v>
+        <v>-0.02186873375237084</v>
       </c>
       <c r="D38">
-        <v>-0.001876787838523038</v>
+        <v>-0.01115713982351632</v>
       </c>
       <c r="E38">
-        <v>0.02175129369145962</v>
+        <v>0.0002251101339096143</v>
       </c>
       <c r="F38">
-        <v>-0.04339410734389355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.001402791293230955</v>
+      </c>
+      <c r="G38">
+        <v>0.01225524527478986</v>
+      </c>
+      <c r="H38">
+        <v>-0.03663323467634619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02613623703749091</v>
+        <v>0.001847010860547678</v>
       </c>
       <c r="C39">
-        <v>0.01356519495710224</v>
+        <v>-0.08763516919062611</v>
       </c>
       <c r="D39">
-        <v>-0.05945455581760966</v>
+        <v>0.009188672572554428</v>
       </c>
       <c r="E39">
-        <v>-0.02670583613166934</v>
+        <v>0.001538847951700549</v>
       </c>
       <c r="F39">
-        <v>-0.04508063902785054</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01027118209254579</v>
+      </c>
+      <c r="G39">
+        <v>0.02103293445385188</v>
+      </c>
+      <c r="H39">
+        <v>-0.07849471950638835</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01633648053374115</v>
+        <v>0.01911747704250572</v>
       </c>
       <c r="C40">
-        <v>0.03972515319769164</v>
+        <v>-0.03003828470573008</v>
       </c>
       <c r="D40">
-        <v>-0.01940421920140235</v>
+        <v>0.007908624119091436</v>
       </c>
       <c r="E40">
-        <v>-0.03257087879106171</v>
+        <v>0.01075983140195698</v>
       </c>
       <c r="F40">
-        <v>-0.0262748412875977</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02416466286120689</v>
+      </c>
+      <c r="G40">
+        <v>0.02448838973372023</v>
+      </c>
+      <c r="H40">
+        <v>-0.0448594576312236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01032864707749682</v>
+        <v>0.01208888308834498</v>
       </c>
       <c r="C41">
-        <v>0.001108091764458258</v>
+        <v>0.007163782532864214</v>
       </c>
       <c r="D41">
-        <v>-0.001419717768577669</v>
+        <v>0.002051548540049183</v>
       </c>
       <c r="E41">
-        <v>0.01218582302912799</v>
+        <v>-0.001017459739004749</v>
       </c>
       <c r="F41">
-        <v>-0.006622069398181116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.007904789425094438</v>
+      </c>
+      <c r="G41">
+        <v>-0.007542331575386521</v>
+      </c>
+      <c r="H41">
+        <v>0.004519793404905053</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2385416521578552</v>
+        <v>0.07972096732882329</v>
       </c>
       <c r="C42">
-        <v>0.2119158360790888</v>
+        <v>-0.2126935302832502</v>
       </c>
       <c r="D42">
-        <v>-0.3728211234142453</v>
+        <v>0.1219126652656361</v>
       </c>
       <c r="E42">
-        <v>0.8063180101464155</v>
+        <v>0.3261681429774908</v>
       </c>
       <c r="F42">
-        <v>0.2601213370835486</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1872331352315703</v>
+      </c>
+      <c r="G42">
+        <v>-0.8783811270169051</v>
+      </c>
+      <c r="H42">
+        <v>-0.04644458400763624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01241224956605884</v>
+        <v>0.01317707321692217</v>
       </c>
       <c r="C43">
-        <v>0.004057693831130417</v>
+        <v>0.005126453768921067</v>
       </c>
       <c r="D43">
-        <v>-0.00562155753916498</v>
+        <v>0.002694895182786396</v>
       </c>
       <c r="E43">
-        <v>-0.0001359440333087175</v>
+        <v>-0.001182615628527164</v>
       </c>
       <c r="F43">
-        <v>-0.02552392443855952</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.005674991248844345</v>
+      </c>
+      <c r="G43">
+        <v>-0.006282781443754729</v>
+      </c>
+      <c r="H43">
+        <v>-0.004357555144131784</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02279931037838639</v>
+        <v>0.006458859756450211</v>
       </c>
       <c r="C44">
-        <v>-0.01189951391531616</v>
+        <v>-0.03922093914617096</v>
       </c>
       <c r="D44">
-        <v>-0.0274304079519538</v>
+        <v>0.003847618801501037</v>
       </c>
       <c r="E44">
-        <v>0.005041065912229359</v>
+        <v>-0.004195217054877673</v>
       </c>
       <c r="F44">
-        <v>-0.0850657560345028</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03029798094162049</v>
+      </c>
+      <c r="G44">
+        <v>0.01084270335026568</v>
+      </c>
+      <c r="H44">
+        <v>-0.06227944619458805</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01973703760995493</v>
+        <v>0.003609871005299883</v>
       </c>
       <c r="C46">
-        <v>0.004595124319007551</v>
+        <v>-0.0141719314849879</v>
       </c>
       <c r="D46">
-        <v>-0.04070558749881416</v>
+        <v>0.01012683275208777</v>
       </c>
       <c r="E46">
-        <v>-0.0269311337794668</v>
+        <v>-0.00265914848786818</v>
       </c>
       <c r="F46">
-        <v>-0.05550972177661388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01352652787881452</v>
+      </c>
+      <c r="G46">
+        <v>0.01395002170587121</v>
+      </c>
+      <c r="H46">
+        <v>-0.01389035540795052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07899453297663633</v>
+        <v>0.05446981816409324</v>
       </c>
       <c r="C47">
-        <v>0.03537617461452137</v>
+        <v>-0.0699688174978661</v>
       </c>
       <c r="D47">
-        <v>-0.01292853024373209</v>
+        <v>-0.01031952269453082</v>
       </c>
       <c r="E47">
-        <v>-0.03419762879426922</v>
+        <v>-0.00993754702186706</v>
       </c>
       <c r="F47">
-        <v>-0.004598696422275826</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.004098913339267064</v>
+      </c>
+      <c r="G47">
+        <v>0.00699798023462317</v>
+      </c>
+      <c r="H47">
+        <v>0.03528637179601777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01917854783602646</v>
+        <v>0.01341013570097626</v>
       </c>
       <c r="C48">
-        <v>0.006239185485589362</v>
+        <v>-0.01640136446227575</v>
       </c>
       <c r="D48">
-        <v>-0.01325891661946083</v>
+        <v>-0.0003445684139313421</v>
       </c>
       <c r="E48">
-        <v>-0.01197022972427717</v>
+        <v>-0.0004160410242907821</v>
       </c>
       <c r="F48">
-        <v>-0.03112125011791393</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.008278545945960678</v>
+      </c>
+      <c r="G48">
+        <v>0.009662157803830366</v>
+      </c>
+      <c r="H48">
+        <v>-0.01668314029056615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08644562050141942</v>
+        <v>0.05589786586863341</v>
       </c>
       <c r="C50">
-        <v>0.01045551930792463</v>
+        <v>-0.06524606044260829</v>
       </c>
       <c r="D50">
-        <v>-0.03232779974145846</v>
+        <v>-0.008358335069297099</v>
       </c>
       <c r="E50">
-        <v>-0.02417590447058383</v>
+        <v>-0.02500533279264527</v>
       </c>
       <c r="F50">
-        <v>-0.01598745580497372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02102427982127406</v>
+      </c>
+      <c r="G50">
+        <v>0.001784469110148617</v>
+      </c>
+      <c r="H50">
+        <v>0.02119644541773495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01778231050744143</v>
+        <v>0.01446566731283433</v>
       </c>
       <c r="C51">
-        <v>-0.003105749981708035</v>
+        <v>-0.01756931181072438</v>
       </c>
       <c r="D51">
-        <v>0.004907484316443792</v>
+        <v>0.00482048779105766</v>
       </c>
       <c r="E51">
-        <v>-0.003705632683123751</v>
+        <v>-0.0075089435720974</v>
       </c>
       <c r="F51">
-        <v>-0.09344096546777407</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01306931152292279</v>
+      </c>
+      <c r="G51">
+        <v>0.01682640564297187</v>
+      </c>
+      <c r="H51">
+        <v>-0.04990097797966544</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09090500065008475</v>
+        <v>0.07084989372123227</v>
       </c>
       <c r="C53">
-        <v>0.03520501991641171</v>
+        <v>-0.1063759093375813</v>
       </c>
       <c r="D53">
-        <v>-0.04138753920747331</v>
+        <v>-0.01130370944608119</v>
       </c>
       <c r="E53">
-        <v>-0.05227073024961063</v>
+        <v>-0.02309477592303124</v>
       </c>
       <c r="F53">
-        <v>0.0318060350220764</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01446700620166254</v>
+      </c>
+      <c r="G53">
+        <v>0.001631339845709358</v>
+      </c>
+      <c r="H53">
+        <v>0.03896720311571325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0275736630186962</v>
+        <v>0.02273118068519994</v>
       </c>
       <c r="C54">
-        <v>-0.003007464198317575</v>
+        <v>-0.002297939443408109</v>
       </c>
       <c r="D54">
-        <v>0.00598298868977147</v>
+        <v>-0.006792120847176089</v>
       </c>
       <c r="E54">
-        <v>-0.02486462309084985</v>
+        <v>-0.0008090821178254877</v>
       </c>
       <c r="F54">
-        <v>-0.02880056512007661</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02681573069695986</v>
+      </c>
+      <c r="G54">
+        <v>0.02374563427254365</v>
+      </c>
+      <c r="H54">
+        <v>-0.006181428639622694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08320743426039084</v>
+        <v>0.05244964439201945</v>
       </c>
       <c r="C55">
-        <v>0.03143689202681225</v>
+        <v>-0.09482060214922115</v>
       </c>
       <c r="D55">
-        <v>-0.04899514582580695</v>
+        <v>-0.008990897841638309</v>
       </c>
       <c r="E55">
-        <v>-0.03745905864722169</v>
+        <v>-0.01343683423923134</v>
       </c>
       <c r="F55">
-        <v>0.03064199373496366</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.0003300304302673205</v>
+      </c>
+      <c r="G55">
+        <v>0.00229035118583599</v>
+      </c>
+      <c r="H55">
+        <v>0.03766119302316596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1290183542855312</v>
+        <v>0.09603845282445167</v>
       </c>
       <c r="C56">
-        <v>0.06024265032807381</v>
+        <v>-0.1356373583149046</v>
       </c>
       <c r="D56">
-        <v>-0.02292732186690085</v>
+        <v>-0.02053328529573056</v>
       </c>
       <c r="E56">
-        <v>-0.08226512321168414</v>
+        <v>-0.03344399741576927</v>
       </c>
       <c r="F56">
-        <v>0.05887289643347366</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.03470598250993435</v>
+      </c>
+      <c r="G56">
+        <v>0.0008441584144827213</v>
+      </c>
+      <c r="H56">
+        <v>0.08389766157779899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03549910919402586</v>
+        <v>0.02126978023138872</v>
       </c>
       <c r="C57">
-        <v>0.01631954786361001</v>
+        <v>-0.02988787562759573</v>
       </c>
       <c r="D57">
-        <v>-0.02740112171426294</v>
+        <v>0.02222541366205005</v>
       </c>
       <c r="E57">
-        <v>0.03279148854559946</v>
+        <v>0.01931536523170077</v>
       </c>
       <c r="F57">
-        <v>-0.05726419520410967</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03886919786342131</v>
+      </c>
+      <c r="G57">
+        <v>0.02404118440465137</v>
+      </c>
+      <c r="H57">
+        <v>-0.06705013973264851</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1656090631371609</v>
+        <v>0.07347633648145768</v>
       </c>
       <c r="C58">
-        <v>0.1975359226509028</v>
+        <v>-0.1907051061919636</v>
       </c>
       <c r="D58">
-        <v>-0.2111805497499982</v>
+        <v>0.003665560552311474</v>
       </c>
       <c r="E58">
-        <v>-0.02962499987372167</v>
+        <v>0.6172024101271409</v>
       </c>
       <c r="F58">
-        <v>-0.589388708239327</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.5876510829246426</v>
+      </c>
+      <c r="G58">
+        <v>0.4046144949129893</v>
+      </c>
+      <c r="H58">
+        <v>0.089584547442742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07435862016454463</v>
+        <v>0.2092393844800928</v>
       </c>
       <c r="C59">
-        <v>0.03912786483270259</v>
+        <v>0.1646769260614971</v>
       </c>
       <c r="D59">
-        <v>0.1782976864710892</v>
+        <v>-0.02784244519957911</v>
       </c>
       <c r="E59">
-        <v>0.05423218455896458</v>
+        <v>0.01611104155837174</v>
       </c>
       <c r="F59">
-        <v>-0.07928436269237558</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01555579673672176</v>
+      </c>
+      <c r="G59">
+        <v>0.009730309993648547</v>
+      </c>
+      <c r="H59">
+        <v>-0.01564637275539563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1413504817869319</v>
+        <v>0.2265613203476377</v>
       </c>
       <c r="C60">
-        <v>0.09660819637361472</v>
+        <v>-0.07799089464942395</v>
       </c>
       <c r="D60">
-        <v>-0.001870015192082993</v>
+        <v>-0.01195258272808573</v>
       </c>
       <c r="E60">
-        <v>0.01588105516188486</v>
+        <v>0.007827388980140969</v>
       </c>
       <c r="F60">
-        <v>-0.1647641229197729</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1402349399850654</v>
+      </c>
+      <c r="G60">
+        <v>0.0587162366004407</v>
+      </c>
+      <c r="H60">
+        <v>-0.3807246693077561</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02180400792690473</v>
+        <v>0.01189186562052215</v>
       </c>
       <c r="C61">
-        <v>0.008580810292484985</v>
+        <v>-0.06324034588371095</v>
       </c>
       <c r="D61">
-        <v>-0.04032269044604904</v>
+        <v>0.001748604761309144</v>
       </c>
       <c r="E61">
-        <v>-0.01142434491270245</v>
+        <v>-0.006045135695630756</v>
       </c>
       <c r="F61">
-        <v>-0.0190064348212616</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.005533408603264293</v>
+      </c>
+      <c r="G61">
+        <v>0.02087541435092028</v>
+      </c>
+      <c r="H61">
+        <v>-0.05668392521196931</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01821564774253134</v>
+        <v>0.007110943721586853</v>
       </c>
       <c r="C63">
-        <v>0.002827581107044987</v>
+        <v>-0.02332259698759372</v>
       </c>
       <c r="D63">
-        <v>-0.01777663626027269</v>
+        <v>0.006216894452179466</v>
       </c>
       <c r="E63">
-        <v>-0.006177168938548837</v>
+        <v>-0.01014737900861809</v>
       </c>
       <c r="F63">
-        <v>-0.004686831441277892</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.006113683230709554</v>
+      </c>
+      <c r="G63">
+        <v>0.009581322710840353</v>
+      </c>
+      <c r="H63">
+        <v>-0.01375415341946355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04188197248175968</v>
+        <v>0.03449729701012692</v>
       </c>
       <c r="C64">
-        <v>0.002268964442931704</v>
+        <v>-0.04559798870424493</v>
       </c>
       <c r="D64">
-        <v>-0.02789455940704627</v>
+        <v>0.0005755707254124861</v>
       </c>
       <c r="E64">
-        <v>-0.02326641266353056</v>
+        <v>-0.02225543738828705</v>
       </c>
       <c r="F64">
-        <v>-0.01262679744523715</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.009140186141711974</v>
+      </c>
+      <c r="G64">
+        <v>-0.009859014114302535</v>
+      </c>
+      <c r="H64">
+        <v>-0.03658676345923566</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0398940529933361</v>
+        <v>0.04146935418742063</v>
       </c>
       <c r="C65">
-        <v>0.01136367415179048</v>
+        <v>-0.08323720641438348</v>
       </c>
       <c r="D65">
-        <v>-0.0408201984833968</v>
+        <v>0.01117469444661233</v>
       </c>
       <c r="E65">
-        <v>-0.03533309885430311</v>
+        <v>-0.02182969025774082</v>
       </c>
       <c r="F65">
-        <v>-0.01375706994313322</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03521692366008388</v>
+      </c>
+      <c r="G65">
+        <v>0.03015693181042485</v>
+      </c>
+      <c r="H65">
+        <v>-0.06627592824213065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03478174423472957</v>
+        <v>0.0109266292435227</v>
       </c>
       <c r="C66">
-        <v>0.02528623178648719</v>
+        <v>-0.1183268773595694</v>
       </c>
       <c r="D66">
-        <v>-0.06246827602162559</v>
+        <v>0.006179224685973981</v>
       </c>
       <c r="E66">
-        <v>-0.05419670210452066</v>
+        <v>-0.003706470522097862</v>
       </c>
       <c r="F66">
-        <v>-0.03025086516571335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.02845484767734928</v>
+      </c>
+      <c r="G66">
+        <v>0.04085243859675448</v>
+      </c>
+      <c r="H66">
+        <v>-0.08527207650554246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02312807123403275</v>
+        <v>0.04940375028225208</v>
       </c>
       <c r="C67">
-        <v>0.0129745871605373</v>
+        <v>-0.02972568762224579</v>
       </c>
       <c r="D67">
-        <v>0.008728271152231385</v>
+        <v>-0.0113939732881518</v>
       </c>
       <c r="E67">
-        <v>0.01560704125771845</v>
+        <v>-0.005864063275866175</v>
       </c>
       <c r="F67">
-        <v>-0.02913237212001944</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.009868734703118047</v>
+      </c>
+      <c r="G67">
+        <v>0.0157594145709223</v>
+      </c>
+      <c r="H67">
+        <v>-0.03526961236551145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08483982511489531</v>
+        <v>0.2101182189601981</v>
       </c>
       <c r="C68">
-        <v>0.03073015506030947</v>
+        <v>0.2027552459114619</v>
       </c>
       <c r="D68">
-        <v>0.2019890573602473</v>
+        <v>-0.008992814414970017</v>
       </c>
       <c r="E68">
-        <v>0.06760024634172844</v>
+        <v>0.02773772047079513</v>
       </c>
       <c r="F68">
-        <v>-0.07109268817734556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05540020540517972</v>
+      </c>
+      <c r="G68">
+        <v>-0.0148570383573655</v>
+      </c>
+      <c r="H68">
+        <v>0.03197579460215565</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06442973254514762</v>
+        <v>0.05504113482659468</v>
       </c>
       <c r="C69">
-        <v>0.0292624806864128</v>
+        <v>-0.06375113462334334</v>
       </c>
       <c r="D69">
-        <v>-0.01428369846678866</v>
+        <v>-0.01462749207152231</v>
       </c>
       <c r="E69">
-        <v>-0.03684083495928881</v>
+        <v>-0.01983204904258562</v>
       </c>
       <c r="F69">
-        <v>-0.0021491968311599</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01613686696113354</v>
+      </c>
+      <c r="G69">
+        <v>0.01012454080400983</v>
+      </c>
+      <c r="H69">
+        <v>0.007367521344031345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08766369057379417</v>
+        <v>0.1851473507190126</v>
       </c>
       <c r="C71">
-        <v>0.0367157322014023</v>
+        <v>0.1588391646522351</v>
       </c>
       <c r="D71">
-        <v>0.1991356422389108</v>
+        <v>-0.01390830725666486</v>
       </c>
       <c r="E71">
-        <v>0.1106792406321025</v>
+        <v>0.03009930660951188</v>
       </c>
       <c r="F71">
-        <v>-0.07678859820673999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.05622092077361998</v>
+      </c>
+      <c r="G71">
+        <v>-0.02399054805096831</v>
+      </c>
+      <c r="H71">
+        <v>0.008080962576570228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1029421705404665</v>
+        <v>0.0531361401229682</v>
       </c>
       <c r="C72">
-        <v>0.05765512788624719</v>
+        <v>-0.1106997224281437</v>
       </c>
       <c r="D72">
-        <v>-0.08389163422002208</v>
+        <v>-0.01494337817452812</v>
       </c>
       <c r="E72">
-        <v>-0.09054976363071771</v>
+        <v>-0.005838895023861138</v>
       </c>
       <c r="F72">
-        <v>-0.08717027051489533</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.03766327216009497</v>
+      </c>
+      <c r="G72">
+        <v>0.05787301754509071</v>
+      </c>
+      <c r="H72">
+        <v>-0.09238994994021174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1709567315133408</v>
+        <v>0.2897239496517657</v>
       </c>
       <c r="C73">
-        <v>0.1646934976683053</v>
+        <v>-0.154685642563115</v>
       </c>
       <c r="D73">
-        <v>-0.02102404554664119</v>
+        <v>-0.01015331477238798</v>
       </c>
       <c r="E73">
-        <v>0.04062614419342785</v>
+        <v>0.0309062519339135</v>
       </c>
       <c r="F73">
-        <v>-0.1878592151363283</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1958354920298773</v>
+      </c>
+      <c r="G73">
+        <v>0.05763033200832661</v>
+      </c>
+      <c r="H73">
+        <v>-0.4688225936716427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.117672480900069</v>
+        <v>0.0956349162796387</v>
       </c>
       <c r="C74">
-        <v>0.05411149754977559</v>
+        <v>-0.1388818268254923</v>
       </c>
       <c r="D74">
-        <v>-0.03370860263535672</v>
+        <v>-0.02059502630769218</v>
       </c>
       <c r="E74">
-        <v>-0.05597906579702643</v>
+        <v>-0.03114314807973385</v>
       </c>
       <c r="F74">
-        <v>0.07067297058992134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.02636091955786546</v>
+      </c>
+      <c r="G74">
+        <v>0.003303983035013271</v>
+      </c>
+      <c r="H74">
+        <v>0.05114675191428796</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2106880555725083</v>
+        <v>0.1982629941806918</v>
       </c>
       <c r="C75">
-        <v>0.1157591734167017</v>
+        <v>-0.2327018586287463</v>
       </c>
       <c r="D75">
-        <v>-0.03319190676566686</v>
+        <v>-0.04387897188763277</v>
       </c>
       <c r="E75">
-        <v>-0.1637302905871547</v>
+        <v>-0.04231030975355659</v>
       </c>
       <c r="F75">
-        <v>0.1153438297196289</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.07082744025729072</v>
+      </c>
+      <c r="G75">
+        <v>0.02406188817467173</v>
+      </c>
+      <c r="H75">
+        <v>0.1825189808718523</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.259299355290398</v>
+        <v>0.1460740910283321</v>
       </c>
       <c r="C76">
-        <v>0.09641200803477411</v>
+        <v>-0.2031437824962976</v>
       </c>
       <c r="D76">
-        <v>-0.03419053815211862</v>
+        <v>-0.03754615986188847</v>
       </c>
       <c r="E76">
-        <v>-0.18602356502598</v>
+        <v>-0.08271695542645452</v>
       </c>
       <c r="F76">
-        <v>0.2204801404268887</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.04791771691088108</v>
+      </c>
+      <c r="G76">
+        <v>0.00256462111491888</v>
+      </c>
+      <c r="H76">
+        <v>0.1537979296331996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0934980538991783</v>
+        <v>0.04530438447765474</v>
       </c>
       <c r="C77">
-        <v>0.05533231248411069</v>
+        <v>-0.08816527304477854</v>
       </c>
       <c r="D77">
-        <v>-0.07903676181266811</v>
+        <v>0.008553950731476214</v>
       </c>
       <c r="E77">
-        <v>0.02790787253219944</v>
+        <v>0.02326048501767952</v>
       </c>
       <c r="F77">
-        <v>-0.09363753576300157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.03892813536762259</v>
+      </c>
+      <c r="G77">
+        <v>0.006470897436158831</v>
+      </c>
+      <c r="H77">
+        <v>-0.02220649478413616</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05424681983741474</v>
+        <v>0.02042249304512737</v>
       </c>
       <c r="C78">
-        <v>0.01151042727213915</v>
+        <v>-0.07585580043200793</v>
       </c>
       <c r="D78">
-        <v>-0.09783555493698112</v>
+        <v>0.003458617071403535</v>
       </c>
       <c r="E78">
-        <v>-0.03943978412282865</v>
+        <v>-0.003516730770593433</v>
       </c>
       <c r="F78">
-        <v>-0.07116709325399162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01387767120475602</v>
+      </c>
+      <c r="G78">
+        <v>0.03239764609910696</v>
+      </c>
+      <c r="H78">
+        <v>-0.087832687561477</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5081146725789576</v>
+        <v>0.09894570256271003</v>
       </c>
       <c r="C80">
-        <v>-0.8380040833771001</v>
+        <v>-0.1119194549925392</v>
       </c>
       <c r="D80">
-        <v>-0.05739199513818923</v>
+        <v>-0.003592877790292082</v>
       </c>
       <c r="E80">
-        <v>0.06736260814370992</v>
+        <v>-0.6752079641061522</v>
       </c>
       <c r="F80">
-        <v>-0.05164309956885563</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.6756564057776303</v>
+      </c>
+      <c r="G80">
+        <v>-0.0653752491549611</v>
+      </c>
+      <c r="H80">
+        <v>-0.1110562513042798</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1733646104961594</v>
+        <v>0.1257997383589207</v>
       </c>
       <c r="C81">
-        <v>0.07737183248919544</v>
+        <v>-0.1476181019321047</v>
       </c>
       <c r="D81">
-        <v>-0.01074380234990581</v>
+        <v>-0.02695452750392302</v>
       </c>
       <c r="E81">
-        <v>-0.1261657497991387</v>
+        <v>-0.0413793516596053</v>
       </c>
       <c r="F81">
-        <v>0.09192772110909656</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.02877529962489097</v>
+      </c>
+      <c r="G81">
+        <v>0.008935085684696311</v>
+      </c>
+      <c r="H81">
+        <v>0.1137094188251738</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.002283299445294156</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0007981324874615894</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0003844414869105453</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.0002836028262921484</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.000987897812556203</v>
+      </c>
+      <c r="G82">
+        <v>0.0007020306794831845</v>
+      </c>
+      <c r="H82">
+        <v>-0.001449865245707985</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03055449809628718</v>
+        <v>0.01908533654021523</v>
       </c>
       <c r="C83">
-        <v>0.01962936531287991</v>
+        <v>-0.02341318924194083</v>
       </c>
       <c r="D83">
-        <v>-0.02660467577869742</v>
+        <v>0.003228252133556009</v>
       </c>
       <c r="E83">
-        <v>0.01419067014462491</v>
+        <v>0.01217578017902175</v>
       </c>
       <c r="F83">
-        <v>-0.05076819031855936</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02005408325093109</v>
+      </c>
+      <c r="G83">
+        <v>0.01413980214736225</v>
+      </c>
+      <c r="H83">
+        <v>-0.0419914742632851</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2284143252573249</v>
+        <v>0.1767011527269795</v>
       </c>
       <c r="C85">
-        <v>0.1159229237050619</v>
+        <v>-0.2216553945406473</v>
       </c>
       <c r="D85">
-        <v>-0.03373066568611346</v>
+        <v>-0.02851789596148324</v>
       </c>
       <c r="E85">
-        <v>-0.1682280309844125</v>
+        <v>-0.05516541086440317</v>
       </c>
       <c r="F85">
-        <v>0.156715677599733</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1002812260774532</v>
+      </c>
+      <c r="G85">
+        <v>-0.008702360752699066</v>
+      </c>
+      <c r="H85">
+        <v>0.1245509889438589</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.008629881966380653</v>
+        <v>0.01025718952373075</v>
       </c>
       <c r="C86">
-        <v>-0.001506065618837156</v>
+        <v>-0.03509402552481011</v>
       </c>
       <c r="D86">
-        <v>-0.05743530950987391</v>
+        <v>0.006792760203613464</v>
       </c>
       <c r="E86">
-        <v>3.332731801676857e-05</v>
+        <v>0.002315640813344606</v>
       </c>
       <c r="F86">
-        <v>-0.04598861617711533</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02115305899236787</v>
+      </c>
+      <c r="G86">
+        <v>-0.00189775265624859</v>
+      </c>
+      <c r="H86">
+        <v>-0.07675560982791864</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02776267799791375</v>
+        <v>0.003142447513352607</v>
       </c>
       <c r="C87">
-        <v>0.008784768056733594</v>
+        <v>-0.03818959489506878</v>
       </c>
       <c r="D87">
-        <v>-0.0407444933271154</v>
+        <v>0.008449336472733576</v>
       </c>
       <c r="E87">
-        <v>-0.01192139037462203</v>
+        <v>0.01742078043903605</v>
       </c>
       <c r="F87">
-        <v>-0.08868459581761963</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03846765997442311</v>
+      </c>
+      <c r="G87">
+        <v>0.03418927533443736</v>
+      </c>
+      <c r="H87">
+        <v>-0.08409639976232039</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02386515914869525</v>
+        <v>0.04517505027247229</v>
       </c>
       <c r="C88">
-        <v>-0.002593297429657553</v>
+        <v>-0.02004716569213776</v>
       </c>
       <c r="D88">
-        <v>0.003956342727596479</v>
+        <v>0.01653929156507118</v>
       </c>
       <c r="E88">
-        <v>-0.008569432029991582</v>
+        <v>-0.02792728750480923</v>
       </c>
       <c r="F88">
-        <v>0.02667216621741802</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.007599946569206</v>
+      </c>
+      <c r="G88">
+        <v>0.005289944003443034</v>
+      </c>
+      <c r="H88">
+        <v>-0.001018018802180519</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1343237773856379</v>
+        <v>0.3259351783252328</v>
       </c>
       <c r="C89">
-        <v>0.08096505438768554</v>
+        <v>0.2852697516576662</v>
       </c>
       <c r="D89">
-        <v>0.3494727772732244</v>
+        <v>-0.02427002293756919</v>
       </c>
       <c r="E89">
-        <v>0.08490449443593809</v>
+        <v>0.01850287086192925</v>
       </c>
       <c r="F89">
-        <v>-0.1006675301212962</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.001120140554255389</v>
+      </c>
+      <c r="G89">
+        <v>-0.02038023052701335</v>
+      </c>
+      <c r="H89">
+        <v>0.01861578546893322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1059892594202641</v>
+        <v>0.2715901544192578</v>
       </c>
       <c r="C90">
-        <v>0.03336140732894234</v>
+        <v>0.26375758876799</v>
       </c>
       <c r="D90">
-        <v>0.3366464689908619</v>
+        <v>-0.0230416000418802</v>
       </c>
       <c r="E90">
-        <v>0.1098229766070347</v>
+        <v>0.02214986512944388</v>
       </c>
       <c r="F90">
-        <v>-0.03183362841036914</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04831568378169046</v>
+      </c>
+      <c r="G90">
+        <v>-0.03184525199016385</v>
+      </c>
+      <c r="H90">
+        <v>0.06094053376807527</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2619689807206312</v>
+        <v>0.1891176530919812</v>
       </c>
       <c r="C91">
-        <v>0.1508119268986378</v>
+        <v>-0.2089714302712488</v>
       </c>
       <c r="D91">
-        <v>-0.04907257794138876</v>
+        <v>-0.04116267250265104</v>
       </c>
       <c r="E91">
-        <v>-0.1470716848403563</v>
+        <v>-0.03983303492074933</v>
       </c>
       <c r="F91">
-        <v>0.2346311925324905</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.07517631380023274</v>
+      </c>
+      <c r="G91">
+        <v>-0.009343338016747018</v>
+      </c>
+      <c r="H91">
+        <v>0.1956289625981428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1794143417600175</v>
+        <v>0.2790365873090606</v>
       </c>
       <c r="C92">
-        <v>0.07955935498415884</v>
+        <v>0.1735864213808547</v>
       </c>
       <c r="D92">
-        <v>0.4131208945530527</v>
+        <v>-0.06490968954213247</v>
       </c>
       <c r="E92">
-        <v>0.04408819048469594</v>
+        <v>0.01495585159150028</v>
       </c>
       <c r="F92">
-        <v>0.1237640225428155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.06565518564849343</v>
+      </c>
+      <c r="G92">
+        <v>0.0002533402395682133</v>
+      </c>
+      <c r="H92">
+        <v>0.1479089935008385</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1141654165110553</v>
+        <v>0.3048462601809782</v>
       </c>
       <c r="C93">
-        <v>0.0846851383896596</v>
+        <v>0.257196736889967</v>
       </c>
       <c r="D93">
-        <v>0.3840524979819392</v>
+        <v>-0.03230833614777098</v>
       </c>
       <c r="E93">
-        <v>0.1647198288285119</v>
+        <v>0.04721332423813314</v>
       </c>
       <c r="F93">
-        <v>-0.04972677616074339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01438204350888779</v>
+      </c>
+      <c r="G93">
+        <v>-0.03953655899428582</v>
+      </c>
+      <c r="H93">
+        <v>-0.006252457857077317</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.273725678651979</v>
+        <v>0.2314110499952609</v>
       </c>
       <c r="C94">
-        <v>0.1754473432469916</v>
+        <v>-0.2386576844352909</v>
       </c>
       <c r="D94">
-        <v>-0.005988527722443644</v>
+        <v>-0.03107515418898315</v>
       </c>
       <c r="E94">
-        <v>-0.2494093960392838</v>
+        <v>-0.0569527302226706</v>
       </c>
       <c r="F94">
-        <v>0.1452762114519521</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.159000255004571</v>
+      </c>
+      <c r="G94">
+        <v>0.05329436834550123</v>
+      </c>
+      <c r="H94">
+        <v>0.4397457776236733</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.02910382218615448</v>
+        <v>0.03359542772782435</v>
       </c>
       <c r="C95">
-        <v>0.1010214873700327</v>
+        <v>-0.1025488095751967</v>
       </c>
       <c r="D95">
-        <v>-0.03150449015498868</v>
+        <v>-0.01090333295880485</v>
       </c>
       <c r="E95">
-        <v>-0.03207386446883175</v>
+        <v>0.09711080862667429</v>
       </c>
       <c r="F95">
-        <v>-0.02877801489975201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02152496519286811</v>
+      </c>
+      <c r="G95">
+        <v>0.02126131238528974</v>
+      </c>
+      <c r="H95">
+        <v>-0.05385195044276166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1407737579555779</v>
+        <v>0.185313305008405</v>
       </c>
       <c r="C98">
-        <v>0.1055882136501303</v>
+        <v>-0.06900076164077816</v>
       </c>
       <c r="D98">
-        <v>0.008993545136534867</v>
+        <v>-0.03327414084622167</v>
       </c>
       <c r="E98">
-        <v>0.07290680111343852</v>
+        <v>0.05228235731535891</v>
       </c>
       <c r="F98">
-        <v>-0.1706922751027957</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.05379161734633149</v>
+      </c>
+      <c r="G98">
+        <v>0.02159962553991671</v>
+      </c>
+      <c r="H98">
+        <v>-0.3356813135242891</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01318776193589162</v>
+        <v>0.005974469064389351</v>
       </c>
       <c r="C101">
-        <v>-0.001603439206904484</v>
+        <v>-0.01942052290054926</v>
       </c>
       <c r="D101">
-        <v>-0.03928442233158233</v>
+        <v>0.005807916193999819</v>
       </c>
       <c r="E101">
-        <v>-0.03094365603455475</v>
+        <v>0.02277419678531984</v>
       </c>
       <c r="F101">
-        <v>-0.1787400051813501</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.05492953954373661</v>
+      </c>
+      <c r="G101">
+        <v>0.05509190681482777</v>
+      </c>
+      <c r="H101">
+        <v>-0.01036637611053143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1130684204809976</v>
+        <v>0.09440565257910617</v>
       </c>
       <c r="C102">
-        <v>0.05698193951093051</v>
+        <v>-0.1093979780788892</v>
       </c>
       <c r="D102">
-        <v>-0.01543941441127312</v>
+        <v>-0.008090122663234053</v>
       </c>
       <c r="E102">
-        <v>-0.08531260373682961</v>
+        <v>-0.03078167096300209</v>
       </c>
       <c r="F102">
-        <v>0.08909907820997866</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.05211244150760735</v>
+      </c>
+      <c r="G102">
+        <v>0.003111860433200215</v>
+      </c>
+      <c r="H102">
+        <v>0.0687384065578738</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04735052705496506</v>
+        <v>0.01180282579102831</v>
       </c>
       <c r="C103">
-        <v>0.007809989461339781</v>
+        <v>-0.01886176593953769</v>
       </c>
       <c r="D103">
-        <v>-0.01923083952225926</v>
+        <v>-0.001335448504445374</v>
       </c>
       <c r="E103">
-        <v>-0.04179493980438094</v>
+        <v>-0.01028676456648582</v>
       </c>
       <c r="F103">
-        <v>0.01246131652595542</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01136339898449719</v>
+      </c>
+      <c r="G103">
+        <v>0.003929927465230159</v>
+      </c>
+      <c r="H103">
+        <v>0.01531575849889097</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1053240633799645</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.02602373487966075</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9800673387714006</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.05194094227131243</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.04159186873097812</v>
+      </c>
+      <c r="G104">
+        <v>0.1026767494554142</v>
+      </c>
+      <c r="H104">
+        <v>0.0576209816891949</v>
       </c>
     </row>
   </sheetData>
